--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1104503.240820424</v>
+        <v>1153880.391992087</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797151</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6531220.886718026</v>
+        <v>7031119.806903611</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D2" t="n">
-        <v>205.0783572980732</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -716,7 +718,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -817,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>116.0434079398612</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -902,13 +904,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>59.18212589108353</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.56453789817022</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>272.5018050100015</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3742563943501</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>47.31231422130971</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1296,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>116.0222355487762</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>184.1013869299889</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>67.4289457920829</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>184.9337317533725</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>30.33291354471841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>141.7034552100809</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.97358346682203</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.8078304689392</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2011,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2245,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>159.271233852086</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480026189</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573255</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2485,13 +2487,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2527,7 +2529,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>81.49380289235384</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.7429394224636</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>103.8284742946034</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700999093</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695674</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3740,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>30.00872265494332</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>131.3957105685739</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>8.909245336631807</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3946,7 +3948,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,13 +3960,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>39.88277234054614</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>17.55115381536141</v>
       </c>
       <c r="F44" t="n">
-        <v>231.9645207592314</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.2549115535338</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C2" t="n">
-        <v>314.1124387369571</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D2" t="n">
         <v>106.9625828803175</v>
@@ -4331,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4364,16 +4366,16 @@
         <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2005.983069159478</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1586.840605738788</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1178.554482038442</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>741.4772326516122</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>741.4772326516122</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2190.910269352854</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.767796536277</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
         <v>53.81800590148855</v>
@@ -4568,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4604,13 +4606,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>2617.209839837762</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4655,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713194</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N6" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.8972536055599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C7" t="n">
-        <v>731.3355420887848</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>574.3318638183778</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>540.2297950422051</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>508.3604142570537</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>478.6260734557529</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1559.714245277141</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1140.571781856452</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>732.2856581561051</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>451.7213438128414</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9633400635787</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1360.482812080068</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1174.52181518109</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1174.52181518109</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.52181518109</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>746.6543855902975</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219836</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U11" t="n">
-        <v>2547.097680155898</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>2184.480730089725</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>1779.625275500758</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1360.482812080068</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1360.482812080068</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>1729.046668200335</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.801965382963</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="N12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2604.675963304948</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2358.796516883403</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883403</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753834</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.814604340125</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673538</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987646</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2380.020412353974</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.877939537397</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1505.968154711842</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>1072.193409870137</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>644.3259802793445</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>242.9281489026084</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>491.3810871096955</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M14" t="n">
-        <v>1880.509478614942</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N14" t="n">
-        <v>2575.073674367565</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>2806.319982838882</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838882</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>2806.319982838882</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2806.319982838882</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>1087.481917853825</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>1087.481917853825</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>1087.481917853825</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N15" t="n">
-        <v>1087.481917853825</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O15" t="n">
-        <v>1719.366161135586</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="P15" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268659</v>
+        <v>830.529930918319</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518839</v>
+        <v>657.9682194015439</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>492.0902266030666</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.440705184641</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.184560268659</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>832.0502353276421</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>832.0502353276421</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5753,13 +5755,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,16 +5779,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1083.7810821021</v>
+        <v>790.336856393767</v>
       </c>
       <c r="C22" t="n">
-        <v>911.2193705853248</v>
+        <v>617.7751448769919</v>
       </c>
       <c r="D22" t="n">
-        <v>745.3413777868475</v>
+        <v>451.8971520785146</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292519</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910081</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W22" t="n">
-        <v>1748.411126173566</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X22" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.599700821087</v>
+        <v>982.1554751127542</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6072,22 +6074,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6175,22 +6177,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2455.944287558408</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2177.511286811513</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1890.555778681944</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.384721759858</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1248.965051073966</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1286.300469346935</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.300469346935</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557486</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P35" t="n">
         <v>5113.042013538981</v>
@@ -7017,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7123,22 +7125,22 @@
         <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7187,7 +7189,7 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>4294.449917128814</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
         <v>5113.042013538981</v>
@@ -7196,19 +7198,19 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609698</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862803</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733234</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1349.89503590447</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C41" t="n">
-        <v>1319.583194838871</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D41" t="n">
-        <v>1319.583194838871</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E41" t="n">
-        <v>885.808449997166</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F41" t="n">
-        <v>457.9410204063738</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>750.6905954094008</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1445.254791162024</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2139.818986914647</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2806.319982838882</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838882</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155898</v>
+        <v>4252.062925031303</v>
       </c>
       <c r="V41" t="n">
-        <v>2184.480730089725</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W41" t="n">
-        <v>2184.480730089725</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X41" t="n">
-        <v>2184.480730089725</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y41" t="n">
-        <v>1776.194606389378</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J42" t="n">
-        <v>213.0649915360004</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K42" t="n">
-        <v>213.0649915360004</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L42" t="n">
-        <v>213.0649915360004</v>
+        <v>743.208250979361</v>
       </c>
       <c r="M42" t="n">
-        <v>907.6291872886236</v>
+        <v>743.208250979361</v>
       </c>
       <c r="N42" t="n">
-        <v>1602.193383041247</v>
+        <v>743.208250979361</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1268.718533547963</v>
+        <v>1009.26578612773</v>
       </c>
       <c r="C43" t="n">
-        <v>1096.156822031188</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>930.2788292327109</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>760.5208254834481</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>583.8137714452043</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>418.2224964710319</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>278.3203221614065</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719073</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>969.2083944398684</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2784.902161544253</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2784.902161544253</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2539.022715122709</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2260.589714375814</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1973.634206246244</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1933.34857761943</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1687.956822952842</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1460.537152266951</v>
+        <v>1201.084404846717</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1598.260998867111</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>1160.118526050534</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>724.2087412249789</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>290.4339963832741</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>491.3810871096955</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1185.945282862319</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>2443.703032772708</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>2024.560569352019</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.560569352019</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1268.718533547963</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>1096.156822031188</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>930.2788292327109</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>760.5208254834481</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>583.8137714452043</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>418.2224964710319</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>278.3203221614065</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>550.9985126719073</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>969.2083944398684</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2770.763490909603</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2492.330490162708</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V46" t="n">
-        <v>2205.374982033139</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1933.34857761943</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X46" t="n">
-        <v>1687.956822952842</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1460.537152266951</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>540.0049805212334</v>
-      </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>651.931657540612</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>624.2965329288038</v>
+        <v>28.24564908821003</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097206</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O14" t="n">
-        <v>233.5821297690063</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>638.2669124058198</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802852</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>874.0742053677695</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,7 +9403,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326327</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,13 +10597,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1127.286065669917</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10835,10 +10837,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>249.659661158422</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>90.2200092229004</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>101.3051212578434</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23546,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>328.6578670207933</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>48.1969773217163</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.1718905122108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.09260206285808</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.789189859684114</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444044</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.15749310933364</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>139.5921776627258</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>90.92021546249606</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473384</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>403.7523254334676</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>125.2343690875794</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>229.4233680290253</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="F44" t="n">
-        <v>191.6242345356529</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26074,10 +26076,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410447.2627906476</v>
+        <v>581537.1436265921</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410447.2627906477</v>
+        <v>581537.143626592</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620127.3956664938</v>
+        <v>620127.3956664939</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620127.3956664939</v>
+        <v>620127.3956664938</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410447.2627906477</v>
+        <v>581537.1436265921</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410447.2627906477</v>
+        <v>581537.1436265921</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="F2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927128</v>
@@ -26335,7 +26337,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="K2" t="n">
         <v>355628.8692927128</v>
@@ -26350,10 +26352,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>235382.11178954</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172708</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,28 +26423,28 @@
         <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>36113.14695271203</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="F4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="G4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="H4" t="n">
-        <v>54561.82510962277</v>
-      </c>
       <c r="I4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
@@ -26451,13 +26453,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>36113.14695271203</v>
+        <v>51166.4669986101</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84022.97646556604</v>
+        <v>-84022.97646556603</v>
       </c>
       <c r="C6" t="n">
-        <v>139676.7221184788</v>
+        <v>139676.7221184789</v>
       </c>
       <c r="D6" t="n">
-        <v>139676.7221184787</v>
+        <v>139676.7221184789</v>
       </c>
       <c r="E6" t="n">
-        <v>146441.9044972209</v>
+        <v>60400.74686458393</v>
       </c>
       <c r="F6" t="n">
-        <v>156612.9010976771</v>
+        <v>211066.5004363319</v>
       </c>
       <c r="G6" t="n">
-        <v>65289.32863118825</v>
+        <v>194258.9964046898</v>
       </c>
       <c r="H6" t="n">
+        <v>223348.8055772976</v>
+      </c>
+      <c r="I6" t="n">
         <v>223348.8055772975</v>
       </c>
-      <c r="I6" t="n">
-        <v>223348.8055772976</v>
-      </c>
       <c r="J6" t="n">
-        <v>48697.45685959136</v>
+        <v>48697.4568595913</v>
       </c>
       <c r="K6" t="n">
         <v>223348.8055772975</v>
       </c>
       <c r="L6" t="n">
-        <v>223348.8055772976</v>
+        <v>223348.8055772975</v>
       </c>
       <c r="M6" t="n">
-        <v>214859.7238739567</v>
+        <v>97597.71724160673</v>
       </c>
       <c r="N6" t="n">
         <v>223348.8055772975</v>
       </c>
       <c r="O6" t="n">
-        <v>156612.901097677</v>
+        <v>211066.5004363319</v>
       </c>
       <c r="P6" t="n">
-        <v>156612.901097677</v>
+        <v>211066.5004363319</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="D2" t="n">
-        <v>226.4723296792267</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.01701577190894</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27622,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>370.2548715022042</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.6387245651729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3.146865729424178</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.6623183857087</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>367.6387245651727</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-7.638832417924158e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30441,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34775,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34936,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>540.0049805212334</v>
-      </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>651.931657540612</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>624.2965329288038</v>
+        <v>28.24564908821003</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097206</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O14" t="n">
-        <v>233.5821297690063</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>638.2669124058198</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802852</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>874.0742053677695</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36121,7 +36123,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326327</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37317,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1127.286065669917</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37555,10 +37557,10 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097205</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1153880.391992087</v>
+        <v>1153274.30436319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797151</v>
+        <v>606553.2040797152</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>248.2979378436725</v>
+        <v>389.0095420743612</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -822,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -898,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.18212589108353</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>214.5368897552624</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1135,25 +1135,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>347.6160279099795</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>47.31231422130971</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998642</v>
+        <v>20.56754178381383</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>145.4261460119205</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>3.065195208556083</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>102.480198477375</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>30.33291354471841</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.7034552100809</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2244,19 +2244,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>54.18430635300722</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480026189</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573255</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>170.2098356895112</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>94.21878984361635</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>48.28314334362814</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>73.01514676193455</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>108.5103196251634</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>131.3957105685739</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>8.909245336631807</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>17.55115381536141</v>
+        <v>318.2330637490546</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>50.05924486566805</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389.6379614873604</v>
+        <v>532.1876844265726</v>
       </c>
       <c r="C2" t="n">
-        <v>138.8319636654689</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,25 +4333,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722682</v>
+        <v>958.4872549114804</v>
       </c>
     </row>
     <row r="3">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2453.356897385708</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2194.134594702725</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.4151554573</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>2213.169435797357</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>515.0619848335836</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2468.626341703672</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2190.193340956777</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="11">
@@ -5047,40 +5047,40 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397637</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231033</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
         <v>3354.995000885117</v>
@@ -5117,31 +5117,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1729.046668200335</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797663</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154828</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>664.63055186622</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279762</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885368</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2674.873217292374</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002202</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
@@ -5284,22 +5284,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
@@ -5314,16 +5314,16 @@
         <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.576129521913</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W14" t="n">
-        <v>3773.720674932946</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.578211512257</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.29208781191</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>279.3749775920493</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>830.529930918319</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C16" t="n">
-        <v>657.9682194015439</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D16" t="n">
-        <v>492.0902266030666</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E16" t="n">
-        <v>322.3322228538038</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F16" t="n">
-        <v>322.3322228538038</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885368</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2586.21326806705</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,10 +5524,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.336856393767</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769919</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>451.8971520785146</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292519</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910081</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127542</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,28 +6065,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6466,13 +6466,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
         <v>4132.862346968674</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4284.732138705585</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,16 +7177,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
         <v>5113.042013538981</v>
@@ -7198,28 +7198,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7356,19 +7356,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
         <v>1617.386921419177</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2230.862362770219</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1792.719889953642</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1356.810105128087</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>923.035360286382</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>495.1679306955898</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>93.77009931885368</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
         <v>93.77009931885368</v>
@@ -7438,25 +7438,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>4252.062925031303</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>3889.44597496513</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>3484.590520376163</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>3065.448056955473</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2657.161933255127</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>743.208250979361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>743.208250979361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>743.208250979361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
         <v>1757.009860797663</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.26578612773</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154828</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>664.63055186622</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279762</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885368</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1201.084404846717</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055493</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238916</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.31074241336</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E44" t="n">
         <v>1212.582304216026</v>
@@ -7675,25 +7675,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316576</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661436</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240747</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.6625705404</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154828</v>
+        <v>580.1373314159857</v>
       </c>
       <c r="E46" t="n">
-        <v>664.63055186622</v>
+        <v>410.3793276667229</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279762</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885368</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>2109.48470841591</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1837.458304002202</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -8002,7 +8002,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>28.24564908821003</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,13 +9172,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9403,7 +9403,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,7 +10123,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10360,19 +10360,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1127.286065669917</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10837,7 +10837,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>111.2039336442328</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>329.0704884999249</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.6578670207933</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.1969773217163</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444044</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>113.8761173587627</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>69.71657238081426</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>90.22000922290108</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>90.92021546249606</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>125.2343690875794</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>161.9268490649755</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>411.8858435779263</v>
+        <v>111.2039336442332</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620127.3956664939</v>
+        <v>620127.3956664938</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>581537.1436265921</v>
+        <v>581537.143626592</v>
       </c>
     </row>
   </sheetData>
@@ -26337,7 +26337,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="K2" t="n">
         <v>355628.8692927128</v>
@@ -26352,7 +26352,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="P2" t="n">
         <v>333498.2429172708</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="C4" t="n">
         <v>148010.1942457891</v>
@@ -26432,16 +26432,16 @@
         <v>51166.46699861011</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
@@ -26453,7 +26453,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
         <v>51166.46699861009</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84022.97646556603</v>
+        <v>-84022.97646556595</v>
       </c>
       <c r="C6" t="n">
         <v>139676.7221184789</v>
@@ -26530,40 +26530,40 @@
         <v>139676.7221184789</v>
       </c>
       <c r="E6" t="n">
-        <v>60400.74686458393</v>
+        <v>60295.55724232926</v>
       </c>
       <c r="F6" t="n">
-        <v>211066.5004363319</v>
+        <v>210961.3108140773</v>
       </c>
       <c r="G6" t="n">
-        <v>194258.9964046898</v>
+        <v>194235.7720653071</v>
       </c>
       <c r="H6" t="n">
-        <v>223348.8055772976</v>
+        <v>223325.5812379148</v>
       </c>
       <c r="I6" t="n">
-        <v>223348.8055772975</v>
+        <v>223325.5812379148</v>
       </c>
       <c r="J6" t="n">
-        <v>48697.4568595913</v>
+        <v>48674.23252020872</v>
       </c>
       <c r="K6" t="n">
-        <v>223348.8055772975</v>
+        <v>223325.5812379149</v>
       </c>
       <c r="L6" t="n">
-        <v>223348.8055772975</v>
+        <v>223325.5812379149</v>
       </c>
       <c r="M6" t="n">
-        <v>97597.71724160673</v>
+        <v>97574.49290222407</v>
       </c>
       <c r="N6" t="n">
-        <v>223348.8055772975</v>
+        <v>223325.5812379149</v>
       </c>
       <c r="O6" t="n">
-        <v>211066.5004363319</v>
+        <v>210961.3108140773</v>
       </c>
       <c r="P6" t="n">
-        <v>211066.5004363319</v>
+        <v>210961.3108140773</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>185.4631102447384</v>
+        <v>44.75150601404971</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.91312667565487</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>3.329665100429338</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>86.14502017843142</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>367.6387245651727</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473429</v>
+        <v>222.8531101735155</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -34722,7 +34722,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35430,10 +35430,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>28.24564908821003</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35892,13 +35892,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -36123,7 +36123,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,7 +36843,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,19 +37080,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1127.286065669917</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,10 +37554,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
